--- a/Excel/AISeeKing.xlsx
+++ b/Excel/AISeeKing.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,11 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>hms_format</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>read</t>
         </is>
       </c>
@@ -463,23 +468,28 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>7BIVWQnAOLk</t>
+          <t>IR59Kr8OeOE</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SambaNova's Deepseek R1 (671B) Coder can</t>
+          <t>Grok-3 will be live in less than 48 Hour</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-02-14</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>5170</v>
+        <v>10706</v>
       </c>
       <c r="E2" t="inlineStr">
+        <is>
+          <t>0:03:54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -488,23 +498,28 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>qSbEymm-Eto</t>
+          <t>0c6eP3zdXtg</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Train ANY Model with Deepseek-R1 Like Re</t>
+          <t xml:space="preserve">Deepseek is building their own AI Chips </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-02-11</t>
+          <t>2025-02-17</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4721</v>
+        <v>6021</v>
       </c>
       <c r="E3" t="inlineStr">
+        <is>
+          <t>0:04:11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -513,23 +528,28 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>99120vcAcx8</t>
+          <t>7BIVWQnAOLk</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OpenAI just UNCENSORED ChatGPT (RIP Char</t>
+          <t>SambaNova's Deepseek R1 (671B) Coder can</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2025-02-15</t>
+          <t>2025-02-14</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4028</v>
+        <v>5612</v>
       </c>
       <c r="E4" t="inlineStr">
+        <is>
+          <t>0:04:28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -538,23 +558,28 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>IR59Kr8OeOE</t>
+          <t>qSbEymm-Eto</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Grok-3 will be live in less than 48 Hour</t>
+          <t>Train ANY Model with Deepseek-R1 Like Re</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-11</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3260</v>
+        <v>5554</v>
       </c>
       <c r="E5" t="inlineStr">
+        <is>
+          <t>0:08:15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -563,23 +588,28 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>sB1HNu6dDR0</t>
+          <t>99120vcAcx8</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OpenAI's Roadmap Explained in 4 Minutes!</t>
+          <t>OpenAI just UNCENSORED ChatGPT (RIP Char</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2025-02-13</t>
+          <t>2025-02-15</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2441</v>
+        <v>5370</v>
       </c>
       <c r="E6" t="inlineStr">
+        <is>
+          <t>0:02:33</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -588,23 +618,148 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>LYXpHSM5AuA</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Grok-3, Big Brain Mode, DeepSearch in 5 </t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2025-02-18</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>4667</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0:06:00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>e58FqZEGxfY</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>Grok-3 costs $10B but still can't beat D</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>2025-02-12</t>
         </is>
       </c>
-      <c r="D7" t="n">
-        <v>2166</v>
-      </c>
-      <c r="E7" t="inlineStr">
+      <c r="D8" t="n">
+        <v>2690</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0:05:02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sB1HNu6dDR0</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>OpenAI's Roadmap Explained in 4 Minutes!</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2025-02-13</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>2545</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0:04:12</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>1Cpg-zAejmo</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>R1-1776: This Opensource MODEL just UNCE</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2025-02-19</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1910</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0:04:22</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>7pR3bVWZSao</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Grok 3 &amp; DeepSearch is now FULLY FREE!</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2025-02-20</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>834</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0:04:26</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
         <is>
           <t>N</t>
         </is>

--- a/Excel/AISeeKing.xlsx
+++ b/Excel/AISeeKing.xlsx
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>10706</v>
+        <v>10799</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -498,25 +498,25 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0c6eP3zdXtg</t>
+          <t>ekaeaZoOh20</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Deepseek is building their own AI Chips </t>
+          <t>Deepseek R2 &amp; Open Week: Deepseek IS GET</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-02-17</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>6021</v>
+        <v>10264</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0:04:11</t>
+          <t>0:03:45</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -528,25 +528,25 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>7BIVWQnAOLk</t>
+          <t>T9YLYU8rBb8</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SambaNova's Deepseek R1 (671B) Coder can</t>
+          <t>Claude 3.7 Sonnet: This NEW Model by Ant</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2025-02-14</t>
+          <t>2025-02-24</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>5612</v>
+        <v>7852</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0:04:28</t>
+          <t>0:03:13</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -558,25 +558,25 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>qSbEymm-Eto</t>
+          <t>0c6eP3zdXtg</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Train ANY Model with Deepseek-R1 Like Re</t>
+          <t xml:space="preserve">Deepseek is building their own AI Chips </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2025-02-11</t>
+          <t>2025-02-17</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>5554</v>
+        <v>6253</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0:08:15</t>
+          <t>0:04:11</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -588,25 +588,25 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>99120vcAcx8</t>
+          <t>qSbEymm-Eto</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OpenAI just UNCENSORED ChatGPT (RIP Char</t>
+          <t>Train ANY Model with Deepseek-R1 Like Re</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2025-02-15</t>
+          <t>2025-02-11</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>5370</v>
+        <v>6031</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0:02:33</t>
+          <t>0:08:15</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -618,25 +618,25 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>LYXpHSM5AuA</t>
+          <t>7BIVWQnAOLk</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Grok-3, Big Brain Mode, DeepSearch in 5 </t>
+          <t>SambaNova's Deepseek R1 (671B) Coder can</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2025-02-18</t>
+          <t>2025-02-14</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4667</v>
+        <v>5730</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0:06:00</t>
+          <t>0:04:28</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -648,25 +648,25 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>e58FqZEGxfY</t>
+          <t>99120vcAcx8</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Grok-3 costs $10B but still can't beat D</t>
+          <t>OpenAI just UNCENSORED ChatGPT (RIP Char</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2025-02-12</t>
+          <t>2025-02-15</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2690</v>
+        <v>5679</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0:05:02</t>
+          <t>0:02:33</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -678,25 +678,25 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>sB1HNu6dDR0</t>
+          <t>y_iH3uqP3Ec</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OpenAI's Roadmap Explained in 4 Minutes!</t>
+          <t>Use Grok-3 For FREE with Cursor, Windsur</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2025-02-13</t>
+          <t>2025-02-21</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2545</v>
+        <v>5168</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0:04:12</t>
+          <t>0:05:17</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -708,25 +708,25 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1Cpg-zAejmo</t>
+          <t>6q1icyYTPrI</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>R1-1776: This Opensource MODEL just UNCE</t>
+          <t>GPT-4.5 is worse than Deepseek V3?... RI</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1910</v>
+        <v>5136</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0:04:22</t>
+          <t>0:03:35</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -738,25 +738,25 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>7pR3bVWZSao</t>
+          <t>LYXpHSM5AuA</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Grok 3 &amp; DeepSearch is now FULLY FREE!</t>
+          <t xml:space="preserve">Grok-3, Big Brain Mode, DeepSearch in 5 </t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2025-02-20</t>
+          <t>2025-02-18</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>834</v>
+        <v>5009</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0:04:26</t>
+          <t>0:06:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">

--- a/Excel/AISeeKing.xlsx
+++ b/Excel/AISeeKing.xlsx
@@ -468,25 +468,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>IR59Kr8OeOE</t>
+          <t>zcwmYFtGFw8</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Grok-3 will be live in less than 48 Hour</t>
+          <t>Claude Code w/ $100 Max Plan is ABSOLUTELY INSANE DEAL!</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>10799</v>
+        <v>20752</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0:03:54</t>
+          <t>0:08:26</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -498,25 +498,25 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ekaeaZoOh20</t>
+          <t>hhvZh57-IPY</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Deepseek R2 &amp; Open Week: Deepseek IS GET</t>
+          <t>Gemini 2.5 ULTRA - Nightwhisper (Fully Tested): Google's OWN NEW AI Model now beats GEMINI 2.5</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-02-26</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>10264</v>
+        <v>13061</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0:03:45</t>
+          <t>0:08:14</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -528,25 +528,25 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>T9YLYU8rBb8</t>
+          <t>6w89OF-oJY8</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Claude 3.7 Sonnet: This NEW Model by Ant</t>
+          <t>Microsoft just opensourced Github Copilot &amp; Changed VS Code FOREVER!</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2025-02-24</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>7852</v>
+        <v>12936</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0:03:13</t>
+          <t>0:09:16</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -558,25 +558,25 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0c6eP3zdXtg</t>
+          <t>X4AzE7Gf7Y0</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Deepseek is building their own AI Chips </t>
+          <t>Google AI Edge App: LM-Studio for Smartphone! This OPENSOURCE AI App by Google is INSANE!</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2025-02-17</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>6253</v>
+        <v>12248</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0:04:11</t>
+          <t>0:09:11</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -588,25 +588,25 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>qSbEymm-Eto</t>
+          <t>0oso_xcm46M</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Train ANY Model with Deepseek-R1 Like Re</t>
+          <t>Google just OPENSOURCED their Deep Research Tool &amp; You can now use it LOCALLY!</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2025-02-11</t>
+          <t>2025-06-03</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>6031</v>
+        <v>11470</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0:08:15</t>
+          <t>0:08:35</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -618,25 +618,25 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>7BIVWQnAOLk</t>
+          <t>urPPGABegAk</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SambaNova's Deepseek R1 (671B) Coder can</t>
+          <t>Gemini's 3 NEW Models are launching today!</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2025-02-14</t>
+          <t>2025-06-17</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>5730</v>
+        <v>10997</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0:04:28</t>
+          <t>0:08:27</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -648,25 +648,25 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>99120vcAcx8</t>
+          <t>IR59Kr8OeOE</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OpenAI just UNCENSORED ChatGPT (RIP Char</t>
+          <t>Grok-3 will be live in less than 48 Hours! (&amp; Everything we know so far)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2025-02-15</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>5679</v>
+        <v>10915</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0:02:33</t>
+          <t>0:03:54</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -678,25 +678,25 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>y_iH3uqP3Ec</t>
+          <t>ekaeaZoOh20</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Use Grok-3 For FREE with Cursor, Windsur</t>
+          <t>Deepseek R2 &amp; Open Week: Deepseek IS GETTING READY FOR R2 LAUNCH!</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-02-26</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>5168</v>
+        <v>10885</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0:05:17</t>
+          <t>0:03:45</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -708,25 +708,25 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>6q1icyYTPrI</t>
+          <t>IWwk6YfzqEQ</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>GPT-4.5 is worse than Deepseek V3?... RI</t>
+          <t>Deepseek R2 &amp; V4: Deepseek's NEW MODEL is 98% CHEAPER &amp; 2X BETTER!</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5136</v>
+        <v>10124</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0:03:35</t>
+          <t>0:08:06</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -738,25 +738,25 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>LYXpHSM5AuA</t>
+          <t>sKqr5UVmlhA</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Grok-3, Big Brain Mode, DeepSearch in 5 </t>
+          <t>Claude's 4.1 is coming next week &amp; Grok-4 Code is almost here!</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2025-02-18</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>5009</v>
+        <v>10057</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0:06:00</t>
+          <t>0:10:06</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
